--- a/Pre_Processing/abiotic_mi_sampling/lab_ml_wd_v.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/lab_ml_wd_v.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H301"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,6 +398,11 @@
           <t>k_index</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rel_abundance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -426,6 +431,9 @@
       <c r="H2">
         <v>0.5539214466099297</v>
       </c>
+      <c r="I2">
+        <v>0.0674674163046256</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -454,6 +462,9 @@
       <c r="H3">
         <v>0.5414305971712106</v>
       </c>
+      <c r="I3">
+        <v>0.192435471505239</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -482,6 +493,9 @@
       <c r="H4">
         <v>0.5363212690597532</v>
       </c>
+      <c r="I4">
+        <v>0.1765908510094557</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -510,6 +524,9 @@
       <c r="H5">
         <v>0.4786614221476723</v>
       </c>
+      <c r="I5">
+        <v>0.1551239458216202</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -538,6 +555,9 @@
       <c r="H6">
         <v>0.6509072139679546</v>
       </c>
+      <c r="I6">
+        <v>0.5351392793253258</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -566,6 +586,9 @@
       <c r="H7">
         <v>0.6265846699887423</v>
       </c>
+      <c r="I7">
+        <v>0.3810375670840787</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -594,6 +617,9 @@
       <c r="H8">
         <v>0.648390196085092</v>
       </c>
+      <c r="I8">
+        <v>0.1673907487860976</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -622,6 +648,9 @@
       <c r="H9">
         <v>0.6752972024115527</v>
       </c>
+      <c r="I9">
+        <v>0.4561717352415027</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -650,6 +679,9 @@
       <c r="H10">
         <v>0.7011637845781656</v>
       </c>
+      <c r="I10">
+        <v>0.6636851520572451</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -678,6 +710,9 @@
       <c r="H11">
         <v>0.6914539399512194</v>
       </c>
+      <c r="I11">
+        <v>0.2323025811397904</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -706,6 +741,9 @@
       <c r="H12">
         <v>0.6320869430041537</v>
       </c>
+      <c r="I12">
+        <v>0.1827242524916944</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -734,6 +772,9 @@
       <c r="H13">
         <v>0.6419181647041091</v>
       </c>
+      <c r="I13">
+        <v>0.6506516739074879</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -762,6 +803,9 @@
       <c r="H14">
         <v>0.6870537161706491</v>
       </c>
+      <c r="I14">
+        <v>0.9044211602351138</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -790,6 +834,9 @@
       <c r="H15">
         <v>0.7098525006350846</v>
       </c>
+      <c r="I15">
+        <v>0.4589828775875288</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -818,6 +865,9 @@
       <c r="H16">
         <v>0.6716394834082039</v>
       </c>
+      <c r="I16">
+        <v>0.4290825453616151</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -846,6 +896,9 @@
       <c r="H17">
         <v>0.6037085940843107</v>
       </c>
+      <c r="I17">
+        <v>0.2760030667007411</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -874,6 +927,9 @@
       <c r="H18">
         <v>0.5167700173621047</v>
       </c>
+      <c r="I18">
+        <v>0.1270125223613596</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -902,6 +958,9 @@
       <c r="H19">
         <v>0.6537330132922942</v>
       </c>
+      <c r="I19">
+        <v>0.1740352670585229</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -930,6 +989,9 @@
       <c r="H20">
         <v>0.6005025340343552</v>
       </c>
+      <c r="I20">
+        <v>0.2956810631229236</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -958,6 +1020,9 @@
       <c r="H21">
         <v>0.6938334145214491</v>
       </c>
+      <c r="I21">
+        <v>0.3411704574495272</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -986,6 +1051,9 @@
       <c r="H22">
         <v>0.5767184758576877</v>
       </c>
+      <c r="I22">
+        <v>0.4840276003066701</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1014,6 +1082,9 @@
       <c r="H23">
         <v>0.5617227774881161</v>
       </c>
+      <c r="I23">
+        <v>0.1426015844620496</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1042,6 +1113,9 @@
       <c r="H24">
         <v>0.5722798093493313</v>
       </c>
+      <c r="I24">
+        <v>0.3064145157168413</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1070,6 +1144,9 @@
       <c r="H25">
         <v>0.6384051349627995</v>
       </c>
+      <c r="I25">
+        <v>0.3442371581906465</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1098,6 +1175,9 @@
       <c r="H26">
         <v>0.5557772615819265</v>
       </c>
+      <c r="I26">
+        <v>0.1556350626118068</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1126,6 +1206,9 @@
       <c r="H27">
         <v>0.4831287488998558</v>
       </c>
+      <c r="I27">
+        <v>0.1627906976744186</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1154,6 +1237,9 @@
       <c r="H28">
         <v>0.5582192167175037</v>
       </c>
+      <c r="I28">
+        <v>0.2141579350881676</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1182,6 +1268,9 @@
       <c r="H29">
         <v>0.5918538642270078</v>
       </c>
+      <c r="I29">
+        <v>0.07053411704574496</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1210,6 +1299,9 @@
       <c r="H30">
         <v>0.6401515129377779</v>
       </c>
+      <c r="I30">
+        <v>0.2415026833631485</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1238,6 +1330,9 @@
       <c r="H31">
         <v>0.5566976134324827</v>
       </c>
+      <c r="I31">
+        <v>0.3444927165857398</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1266,6 +1361,9 @@
       <c r="H32">
         <v>0.6126154364937393</v>
       </c>
+      <c r="I32">
+        <v>0.1533350370559673</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1294,6 +1392,9 @@
       <c r="H33">
         <v>0.5992844849797576</v>
       </c>
+      <c r="I33">
+        <v>0.2877587528750319</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1322,6 +1423,9 @@
       <c r="H34">
         <v>0.4281758227829867</v>
       </c>
+      <c r="I34">
+        <v>0.08791208791208792</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1350,6 +1454,9 @@
       <c r="H35">
         <v>0.5844605684923411</v>
       </c>
+      <c r="I35">
+        <v>0.2558139534883721</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1378,6 +1485,9 @@
       <c r="H36">
         <v>0.5411024307737783</v>
       </c>
+      <c r="I36">
+        <v>0.2798364426271403</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1406,6 +1516,9 @@
       <c r="H37">
         <v>0.5717613115560038</v>
       </c>
+      <c r="I37">
+        <v>0.1788908765652952</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1434,6 +1547,9 @@
       <c r="H38">
         <v>0.6333990459990494</v>
       </c>
+      <c r="I38">
+        <v>0.2747252747252747</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1462,6 +1578,9 @@
       <c r="H39">
         <v>0.4864593844263738</v>
       </c>
+      <c r="I39">
+        <v>0.217224635829287</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1490,6 +1609,9 @@
       <c r="H40">
         <v>0.3992219033291406</v>
       </c>
+      <c r="I40">
+        <v>0.223613595706619</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1518,6 +1640,9 @@
       <c r="H41">
         <v>0.6361973726589679</v>
       </c>
+      <c r="I41">
+        <v>0.2844364937388193</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1546,6 +1671,9 @@
       <c r="H42">
         <v>0.4580682949316448</v>
       </c>
+      <c r="I42">
+        <v>0.08663429593662152</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1574,6 +1702,9 @@
       <c r="H43">
         <v>0.3904180183514258</v>
       </c>
+      <c r="I43">
+        <v>0.09736774853053923</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1602,6 +1733,9 @@
       <c r="H44">
         <v>0.6182434591302841</v>
       </c>
+      <c r="I44">
+        <v>0.1817020189113212</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1630,6 +1764,9 @@
       <c r="H45">
         <v>0.3730567909154147</v>
       </c>
+      <c r="I45">
+        <v>0.03731152568361871</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1658,6 +1795,9 @@
       <c r="H46">
         <v>0.4343468577396056</v>
       </c>
+      <c r="I46">
+        <v>0.09813442371581907</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1686,6 +1826,9 @@
       <c r="H47">
         <v>0.5361611704817053</v>
       </c>
+      <c r="I47">
+        <v>0.120112445693841</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1714,6 +1857,9 @@
       <c r="H48">
         <v>0.4226615795538363</v>
       </c>
+      <c r="I48">
+        <v>0.09021211346792742</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1742,6 +1888,9 @@
       <c r="H49">
         <v>0.4310362957673231</v>
       </c>
+      <c r="I49">
+        <v>0.07027855865065168</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1770,6 +1919,9 @@
       <c r="H50">
         <v>0.5883933839314587</v>
       </c>
+      <c r="I50">
+        <v>0.08561206235624841</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1798,6 +1950,9 @@
       <c r="H51">
         <v>0.4179756986627131</v>
       </c>
+      <c r="I51">
+        <v>0.1101456682852032</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1826,6 +1981,9 @@
       <c r="H52">
         <v>0.3567262963833185</v>
       </c>
+      <c r="I52">
+        <v>0.0626118067978533</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1854,6 +2012,9 @@
       <c r="H53">
         <v>0.5697607165065611</v>
       </c>
+      <c r="I53">
+        <v>0.1119345770508561</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1882,6 +2043,9 @@
       <c r="H54">
         <v>0.4089180641891749</v>
       </c>
+      <c r="I54">
+        <v>0.05111167901865576</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1910,6 +2074,9 @@
       <c r="H55">
         <v>0.3937068420468916</v>
       </c>
+      <c r="I55">
+        <v>0.06670074111934578</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1938,6 +2105,9 @@
       <c r="H56">
         <v>0.4890526019676808</v>
       </c>
+      <c r="I56">
+        <v>0.04753386148734986</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1966,6 +2136,9 @@
       <c r="H57">
         <v>0.5917257599365187</v>
       </c>
+      <c r="I57">
+        <v>0.1019677996422182</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1994,6 +2167,9 @@
       <c r="H58">
         <v>0.2847665431079534</v>
       </c>
+      <c r="I58">
+        <v>0.03475594173268592</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2022,6 +2198,9 @@
       <c r="H59">
         <v>0.4274877917197371</v>
       </c>
+      <c r="I59">
+        <v>0.09481216457960644</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2050,6 +2229,9 @@
       <c r="H60">
         <v>0.4076643476753347</v>
       </c>
+      <c r="I60">
+        <v>0.06210069000766675</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2078,6 +2260,9 @@
       <c r="H61">
         <v>0.382194684477846</v>
       </c>
+      <c r="I61">
+        <v>0.01558906210069001</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2106,6 +2291,9 @@
       <c r="H62">
         <v>0.5142650442850889</v>
       </c>
+      <c r="I62">
+        <v>0.1857909532328137</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2134,6 +2322,9 @@
       <c r="H63">
         <v>0.5291423697813851</v>
       </c>
+      <c r="I63">
+        <v>0.05724508050089445</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2162,6 +2353,9 @@
       <c r="H64">
         <v>0.3828646316426652</v>
       </c>
+      <c r="I64">
+        <v>0.01431127012522361</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2190,6 +2384,9 @@
       <c r="H65">
         <v>0.442801157845308</v>
       </c>
+      <c r="I65">
+        <v>0.1377459749552773</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2218,6 +2415,9 @@
       <c r="H66">
         <v>0.4070899450335168</v>
       </c>
+      <c r="I66">
+        <v>0.03475594173268592</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2246,6 +2446,9 @@
       <c r="H67">
         <v>0.3728941829442116</v>
       </c>
+      <c r="I67">
+        <v>0.02300025555839509</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2274,6 +2477,9 @@
       <c r="H68">
         <v>0.6984497460941174</v>
       </c>
+      <c r="I68">
+        <v>0.184257602862254</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2302,6 +2508,9 @@
       <c r="H69">
         <v>0.502571771178997</v>
       </c>
+      <c r="I69">
+        <v>0.03066700741119346</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2330,6 +2539,9 @@
       <c r="H70">
         <v>0.408988607690199</v>
       </c>
+      <c r="I70">
+        <v>0.009966777408637873</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2358,6 +2570,9 @@
       <c r="H71">
         <v>0.6413258786253547</v>
       </c>
+      <c r="I71">
+        <v>0.1075900843342704</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2386,6 +2601,9 @@
       <c r="H72">
         <v>0.517099544539097</v>
       </c>
+      <c r="I72">
+        <v>0.06848964988499873</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2414,6 +2632,9 @@
       <c r="H73">
         <v>0.43018213052507</v>
       </c>
+      <c r="I73">
+        <v>0.007155635062611807</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2442,6 +2663,9 @@
       <c r="H74">
         <v>0.5198302737982534</v>
       </c>
+      <c r="I74">
+        <v>0.06618962432915922</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2470,6 +2694,9 @@
       <c r="H75">
         <v>0.4417148970799078</v>
       </c>
+      <c r="I75">
+        <v>0.05571173013033478</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2498,6 +2725,9 @@
       <c r="H76">
         <v>0.5013087762650751</v>
       </c>
+      <c r="I76">
+        <v>0.02708918987988755</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2526,6 +2756,9 @@
       <c r="H77">
         <v>0.7848121651765076</v>
       </c>
+      <c r="I77">
+        <v>0.2141579350881676</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2554,6 +2787,9 @@
       <c r="H78">
         <v>0.5263748660143458</v>
       </c>
+      <c r="I78">
+        <v>0.04267825198057756</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2582,6 +2818,9 @@
       <c r="H79">
         <v>0.5712096215894972</v>
       </c>
+      <c r="I79">
+        <v>0.07513416815742398</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2610,6 +2849,9 @@
       <c r="H80">
         <v>0.719531130945533</v>
       </c>
+      <c r="I80">
+        <v>0.2775364170713008</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2638,6 +2880,9 @@
       <c r="H81">
         <v>0.7424759273717116</v>
       </c>
+      <c r="I81">
+        <v>0.242013800153335</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2666,6 +2911,9 @@
       <c r="H82">
         <v>0.6881590274005746</v>
       </c>
+      <c r="I82">
+        <v>0.1635573728596984</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2694,6 +2942,9 @@
       <c r="H83">
         <v>0.653534429309327</v>
       </c>
+      <c r="I83">
+        <v>0.2136468182979811</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2722,6 +2973,9 @@
       <c r="H84">
         <v>0.6366414343754307</v>
       </c>
+      <c r="I84">
+        <v>0.07768975210835675</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2750,6 +3004,9 @@
       <c r="H85">
         <v>0.7031026260074139</v>
       </c>
+      <c r="I85">
+        <v>0.1505238947099412</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2778,6 +3035,9 @@
       <c r="H86">
         <v>0.6027442716128505</v>
       </c>
+      <c r="I86">
+        <v>0.5504727830309226</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2806,6 +3066,9 @@
       <c r="H87">
         <v>0.7131028791814813</v>
       </c>
+      <c r="I87">
+        <v>0.6841298236647074</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2834,6 +3097,9 @@
       <c r="H88">
         <v>0.596666170836707</v>
       </c>
+      <c r="I88">
+        <v>0.1934577050856121</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2862,6 +3128,9 @@
       <c r="H89">
         <v>0.4963794532698622</v>
       </c>
+      <c r="I89">
+        <v>0.2210580117556862</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2890,6 +3159,9 @@
       <c r="H90">
         <v>0.5563195847309085</v>
       </c>
+      <c r="I90">
+        <v>0.1505238947099412</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2918,6 +3190,9 @@
       <c r="H91">
         <v>0.6911016036620283</v>
       </c>
+      <c r="I91">
+        <v>0.434449271658574</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2946,6 +3221,9 @@
       <c r="H92">
         <v>0.8131179808066756</v>
       </c>
+      <c r="I92">
+        <v>0.2734474827498083</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2974,6 +3252,9 @@
       <c r="H93">
         <v>0.7670166432783699</v>
       </c>
+      <c r="I93">
+        <v>0.9639662662918477</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3002,6 +3283,9 @@
       <c r="H94">
         <v>0.5880396530065258</v>
       </c>
+      <c r="I94">
+        <v>0.3536928188090979</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3030,6 +3314,9 @@
       <c r="H95">
         <v>0.7272977421254189</v>
       </c>
+      <c r="I95">
+        <v>0.8732430360337337</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3058,6 +3345,9 @@
       <c r="H96">
         <v>0.6431731013937169</v>
       </c>
+      <c r="I96">
+        <v>0.3117812420138001</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3086,6 +3376,9 @@
       <c r="H97">
         <v>0.5920274837300732</v>
       </c>
+      <c r="I97">
+        <v>0.2208024533605929</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3114,6 +3407,9 @@
       <c r="H98">
         <v>0.6048314248593835</v>
       </c>
+      <c r="I98">
+        <v>0.09353437260414005</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3142,6 +3438,9 @@
       <c r="H99">
         <v>0.6352049336033192</v>
       </c>
+      <c r="I99">
+        <v>0.0590339892665474</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3170,6 +3469,9 @@
       <c r="H100">
         <v>0.683778972187477</v>
       </c>
+      <c r="I100">
+        <v>0.05775619729108101</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3198,6 +3500,9 @@
       <c r="H101">
         <v>0.5587875396822665</v>
       </c>
+      <c r="I101">
+        <v>0.09966777408637874</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3226,6 +3531,9 @@
       <c r="H102">
         <v>0.5692571275785997</v>
       </c>
+      <c r="I102">
+        <v>0.05775619729108101</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3254,6 +3562,9 @@
       <c r="H103">
         <v>0.5765887572972809</v>
       </c>
+      <c r="I103">
+        <v>0.06312292358803986</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3282,6 +3593,9 @@
       <c r="H104">
         <v>0.6746856082527718</v>
       </c>
+      <c r="I104">
+        <v>0.2404804497827754</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3310,6 +3624,9 @@
       <c r="H105">
         <v>0.8091198187386636</v>
       </c>
+      <c r="I105">
+        <v>0.3621262458471761</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3338,6 +3655,9 @@
       <c r="H106">
         <v>0.8510461777563538</v>
       </c>
+      <c r="I106">
+        <v>0.7687196524405827</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3366,6 +3686,9 @@
       <c r="H107">
         <v>0.7169443238908174</v>
       </c>
+      <c r="I107">
+        <v>0.2213135701507795</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3394,6 +3717,9 @@
       <c r="H108">
         <v>0.8664000731606638</v>
       </c>
+      <c r="I108">
+        <v>0.6197291081012011</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3422,6 +3748,9 @@
       <c r="H109">
         <v>0.7562074376110842</v>
       </c>
+      <c r="I109">
+        <v>0.2846920521339126</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3450,6 +3779,9 @@
       <c r="H110">
         <v>0.6652181397286516</v>
       </c>
+      <c r="I110">
+        <v>0.2427804753386149</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3478,6 +3810,9 @@
       <c r="H111">
         <v>0.4517482206138081</v>
       </c>
+      <c r="I111">
+        <v>0.1213902376693074</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3506,6 +3841,9 @@
       <c r="H112">
         <v>0.546492600075656</v>
       </c>
+      <c r="I112">
+        <v>0.09762330692563251</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3534,6 +3872,9 @@
       <c r="H113">
         <v>0.5625561728127837</v>
       </c>
+      <c r="I113">
+        <v>0.09966777408637874</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3562,6 +3903,9 @@
       <c r="H114">
         <v>0.549090262480761</v>
       </c>
+      <c r="I114">
+        <v>0.08586762075134168</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3590,6 +3934,9 @@
       <c r="H115">
         <v>0.6909410686650653</v>
       </c>
+      <c r="I115">
+        <v>0.1239458216202402</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3618,6 +3965,9 @@
       <c r="H116">
         <v>0.5634766935554414</v>
       </c>
+      <c r="I116">
+        <v>0.1308458982877587</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3646,6 +3996,9 @@
       <c r="H117">
         <v>0.604301652971176</v>
       </c>
+      <c r="I117">
+        <v>0.1290569895221058</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3674,6 +4027,9 @@
       <c r="H118">
         <v>0.6952491813936286</v>
       </c>
+      <c r="I118">
+        <v>0.31254791719908</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3702,6 +4058,9 @@
       <c r="H119">
         <v>0.52677051698689</v>
       </c>
+      <c r="I119">
+        <v>0.2162024022489139</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3730,6 +4089,9 @@
       <c r="H120">
         <v>0.6839014027881554</v>
       </c>
+      <c r="I120">
+        <v>0.1886020955788398</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3758,6 +4120,9 @@
       <c r="H121">
         <v>0.6446613093014665</v>
       </c>
+      <c r="I121">
+        <v>0.1768464094045489</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3786,6 +4151,9 @@
       <c r="H122">
         <v>0.5480059313089548</v>
       </c>
+      <c r="I122">
+        <v>0.2731919243547151</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3814,6 +4182,9 @@
       <c r="H123">
         <v>0.5588149509105503</v>
       </c>
+      <c r="I123">
+        <v>0.2576028622540251</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3842,6 +4213,9 @@
       <c r="H124">
         <v>0.6872196314591057</v>
       </c>
+      <c r="I124">
+        <v>0.2021466905187835</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3870,6 +4244,9 @@
       <c r="H125">
         <v>0.4643451432718299</v>
       </c>
+      <c r="I125">
+        <v>0.3179146434960388</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3898,6 +4275,9 @@
       <c r="H126">
         <v>0.5245892627152305</v>
       </c>
+      <c r="I126">
+        <v>0.1597239969332993</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3926,6 +4306,9 @@
       <c r="H127">
         <v>0.6015300705701657</v>
       </c>
+      <c r="I127">
+        <v>0.2292358803986711</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3954,6 +4337,9 @@
       <c r="H128">
         <v>0.5232748712413097</v>
       </c>
+      <c r="I128">
+        <v>0.2024022489138768</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3982,6 +4368,9 @@
       <c r="H129">
         <v>0.7791163044454137</v>
       </c>
+      <c r="I129">
+        <v>0.461027344748275</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4010,6 +4399,9 @@
       <c r="H130">
         <v>0.4716793640642491</v>
       </c>
+      <c r="I130">
+        <v>0.06721185790953232</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4038,6 +4430,9 @@
       <c r="H131">
         <v>0.7170958174416275</v>
       </c>
+      <c r="I131">
+        <v>0.8251980577561973</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4066,6 +4461,9 @@
       <c r="H132">
         <v>0.763534337487258</v>
       </c>
+      <c r="I132">
+        <v>0.5210835675951955</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4094,6 +4492,9 @@
       <c r="H133">
         <v>0.6494157259426822</v>
       </c>
+      <c r="I133">
+        <v>0.2887809864554051</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4122,6 +4523,9 @@
       <c r="H134">
         <v>0.4429265688226399</v>
       </c>
+      <c r="I134">
+        <v>0.1354459493994378</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4150,6 +4554,9 @@
       <c r="H135">
         <v>0.5174552868209843</v>
       </c>
+      <c r="I135">
+        <v>0.2026578073089701</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4178,6 +4585,9 @@
       <c r="H136">
         <v>0.6401672637530639</v>
       </c>
+      <c r="I136">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4206,6 +4616,9 @@
       <c r="H137">
         <v>0.5294427754048412</v>
       </c>
+      <c r="I137">
+        <v>0.2246358292869921</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4234,6 +4647,9 @@
       <c r="H138">
         <v>0.6287445425242574</v>
       </c>
+      <c r="I138">
+        <v>0.2757475083056478</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4262,6 +4678,9 @@
       <c r="H139">
         <v>0.6121514998921647</v>
       </c>
+      <c r="I139">
+        <v>0.1380015333503705</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4290,6 +4709,9 @@
       <c r="H140">
         <v>0.6789913382450731</v>
       </c>
+      <c r="I140">
+        <v>0.3312036800408893</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4318,6 +4740,9 @@
       <c r="H141">
         <v>0.7537384146413441</v>
       </c>
+      <c r="I141">
+        <v>0.4421160235113724</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4346,6 +4771,9 @@
       <c r="H142">
         <v>0.6504931263467418</v>
       </c>
+      <c r="I142">
+        <v>0.1323792486583184</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4374,6 +4802,9 @@
       <c r="H143">
         <v>0.3275999390580689</v>
       </c>
+      <c r="I143">
+        <v>0.07232302581139791</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4402,6 +4833,9 @@
       <c r="H144">
         <v>0.5468166375780561</v>
       </c>
+      <c r="I144">
+        <v>0.142090467671863</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4430,6 +4864,9 @@
       <c r="H145">
         <v>0.7570334303398301</v>
       </c>
+      <c r="I145">
+        <v>0.3240480449782775</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4458,6 +4895,9 @@
       <c r="H146">
         <v>0.564646885090533</v>
       </c>
+      <c r="I146">
+        <v>0.615895732174802</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4486,6 +4926,9 @@
       <c r="H147">
         <v>0.6423762555131721</v>
       </c>
+      <c r="I147">
+        <v>0.3005366726296959</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4514,6 +4957,9 @@
       <c r="H148">
         <v>0.6353330826509614</v>
       </c>
+      <c r="I148">
+        <v>0.3355481727574751</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4542,6 +4988,9 @@
       <c r="H149">
         <v>0.5734484010994917</v>
       </c>
+      <c r="I149">
+        <v>0.521594684385382</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4570,6 +5019,9 @@
       <c r="H150">
         <v>0.741709015642726</v>
       </c>
+      <c r="I150">
+        <v>0.3225146946077179</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4598,6 +5050,9 @@
       <c r="H151">
         <v>0.5129672487508805</v>
       </c>
+      <c r="I151">
+        <v>0.1967799642218247</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4626,6 +5081,9 @@
       <c r="H152">
         <v>0.5664957681429253</v>
       </c>
+      <c r="I152">
+        <v>0.5686174290825453</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4654,6 +5112,9 @@
       <c r="H153">
         <v>0.7244483702959682</v>
       </c>
+      <c r="I153">
+        <v>0.7114745719396882</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4682,6 +5143,9 @@
       <c r="H154">
         <v>0.6680064174477868</v>
       </c>
+      <c r="I154">
+        <v>0.3033478149757219</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4710,6 +5174,9 @@
       <c r="H155">
         <v>0.5948977668430216</v>
       </c>
+      <c r="I155">
+        <v>0.6606184513161257</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4738,6 +5205,9 @@
       <c r="H156">
         <v>0.5456270494688947</v>
       </c>
+      <c r="I156">
+        <v>0.3340148223869154</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4766,6 +5236,9 @@
       <c r="H157">
         <v>0.7466019060276045</v>
       </c>
+      <c r="I157">
+        <v>0.4076156401737797</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4794,6 +5267,9 @@
       <c r="H158">
         <v>0.4050931256251792</v>
       </c>
+      <c r="I158">
+        <v>0.2001022233580373</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4822,6 +5298,9 @@
       <c r="H159">
         <v>0.3991768833085542</v>
       </c>
+      <c r="I159">
+        <v>0.2417582417582418</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4850,6 +5329,9 @@
       <c r="H160">
         <v>0.3740446133978149</v>
       </c>
+      <c r="I160">
+        <v>0.01916687963199591</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4878,6 +5360,9 @@
       <c r="H161">
         <v>0.5525878660053343</v>
       </c>
+      <c r="I161">
+        <v>0.6192179913110145</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4906,6 +5391,9 @@
       <c r="H162">
         <v>0.3266095810129206</v>
       </c>
+      <c r="I162">
+        <v>0.05980066445182725</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4934,6 +5422,9 @@
       <c r="H163">
         <v>0.4250440569079225</v>
       </c>
+      <c r="I163">
+        <v>0.1037567084078712</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4962,6 +5453,9 @@
       <c r="H164">
         <v>0.5129620955586278</v>
       </c>
+      <c r="I164">
+        <v>0.2632251469460772</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4990,6 +5484,9 @@
       <c r="H165">
         <v>0.3544782499592989</v>
       </c>
+      <c r="I165">
+        <v>0.07768975210835675</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5018,6 +5515,9 @@
       <c r="H166">
         <v>0.5051933749460048</v>
       </c>
+      <c r="I166">
+        <v>0.1500127779197547</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5046,6 +5546,9 @@
       <c r="H167">
         <v>0.8996661396168234</v>
       </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5074,6 +5577,9 @@
       <c r="H168">
         <v>0.4374951281541186</v>
       </c>
+      <c r="I168">
+        <v>0.0506005622284692</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5102,6 +5608,9 @@
       <c r="H169">
         <v>0.3863674252375241</v>
       </c>
+      <c r="I169">
+        <v>0.08510094556606185</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5130,6 +5639,9 @@
       <c r="H170">
         <v>0.4660534309270165</v>
       </c>
+      <c r="I170">
+        <v>0.0664451827242525</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5158,6 +5670,9 @@
       <c r="H171">
         <v>0.4466077274974843</v>
       </c>
+      <c r="I171">
+        <v>0.0132890365448505</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5186,6 +5701,9 @@
       <c r="H172">
         <v>0.5926058437686345</v>
       </c>
+      <c r="I172">
+        <v>0.01763352926143624</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5214,6 +5732,9 @@
       <c r="H173">
         <v>0.3877154394811112</v>
       </c>
+      <c r="I173">
+        <v>0.01916687963199591</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5242,6 +5763,9 @@
       <c r="H174">
         <v>0.3273831842182195</v>
       </c>
+      <c r="I174">
+        <v>0.01916687963199591</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5270,6 +5794,9 @@
       <c r="H175">
         <v>0.4960456968552225</v>
       </c>
+      <c r="I175">
+        <v>0.02121134679274214</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5298,6 +5825,9 @@
       <c r="H176">
         <v>0.3841583534052228</v>
       </c>
+      <c r="I176">
+        <v>0.04574495272169691</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5326,6 +5856,9 @@
       <c r="H177">
         <v>0.3926284550962536</v>
       </c>
+      <c r="I177">
+        <v>0.05136723741374905</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5354,6 +5887,9 @@
       <c r="H178">
         <v>0.3407916688400262</v>
       </c>
+      <c r="I178">
+        <v>0.01124456938410427</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5382,6 +5918,9 @@
       <c r="H179">
         <v>0.3659976829958125</v>
       </c>
+      <c r="I179">
+        <v>0.01405571173013033</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5410,6 +5949,9 @@
       <c r="H180">
         <v>0.3409225721097868</v>
       </c>
+      <c r="I180">
+        <v>0.0120112445693841</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5438,6 +5980,9 @@
       <c r="H181">
         <v>0.3327253873309952</v>
       </c>
+      <c r="I181">
+        <v>0.01047789419882443</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5466,6 +6011,9 @@
       <c r="H182">
         <v>0.3025637646111364</v>
       </c>
+      <c r="I182">
+        <v>0.1249680552006133</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5494,6 +6042,9 @@
       <c r="H183">
         <v>0.3399389500519865</v>
       </c>
+      <c r="I183">
+        <v>0.2941477127523639</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5522,6 +6073,9 @@
       <c r="H184">
         <v>0.4349614071075362</v>
       </c>
+      <c r="I184">
+        <v>0.4198824431382571</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5550,6 +6104,9 @@
       <c r="H185">
         <v>0.5315245600963053</v>
       </c>
+      <c r="I185">
+        <v>0.1627906976744186</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5578,6 +6135,9 @@
       <c r="H186">
         <v>0.4177361920836958</v>
       </c>
+      <c r="I186">
+        <v>0.03271147457193969</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5606,6 +6166,9 @@
       <c r="H187">
         <v>0.4870596050801475</v>
       </c>
+      <c r="I187">
+        <v>0.04881165346281625</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5634,6 +6197,9 @@
       <c r="H188">
         <v>0.5955657161343193</v>
       </c>
+      <c r="I188">
+        <v>0.09711219013544595</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5662,6 +6228,9 @@
       <c r="H189">
         <v>0.5741097106469339</v>
       </c>
+      <c r="I189">
+        <v>0.03910043444927166</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5690,6 +6259,9 @@
       <c r="H190">
         <v>0.470951321715191</v>
       </c>
+      <c r="I190">
+        <v>0.05826731408126757</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5718,6 +6290,9 @@
       <c r="H191">
         <v>0.475755217142282</v>
       </c>
+      <c r="I191">
+        <v>0.4206491183235369</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5746,6 +6321,9 @@
       <c r="H192">
         <v>0.4644785442249277</v>
       </c>
+      <c r="I192">
+        <v>0.05290058778430871</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5774,6 +6352,9 @@
       <c r="H193">
         <v>0.5040966470976062</v>
       </c>
+      <c r="I193">
+        <v>0.06312292358803986</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5802,6 +6383,9 @@
       <c r="H194">
         <v>0.5043828852184845</v>
       </c>
+      <c r="I194">
+        <v>0.09200102223358038</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5830,6 +6414,9 @@
       <c r="H195">
         <v>0.5235884766596107</v>
       </c>
+      <c r="I195">
+        <v>0.2864809608995655</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5858,6 +6445,9 @@
       <c r="H196">
         <v>0.5942820683140365</v>
       </c>
+      <c r="I196">
+        <v>0.290569895221058</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5886,6 +6476,9 @@
       <c r="H197">
         <v>0.2782189851149384</v>
       </c>
+      <c r="I197">
+        <v>0.2435471505238947</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5914,6 +6507,9 @@
       <c r="H198">
         <v>0.4646295097512238</v>
       </c>
+      <c r="I198">
+        <v>0.09787886532072579</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5942,6 +6538,9 @@
       <c r="H199">
         <v>0.5616360367459845</v>
       </c>
+      <c r="I199">
+        <v>0.2031689240991567</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5970,6 +6569,9 @@
       <c r="H200">
         <v>0.5398218678458589</v>
       </c>
+      <c r="I200">
+        <v>0.1730130334781498</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5998,6 +6600,9 @@
       <c r="H201">
         <v>0.5263388963468452</v>
       </c>
+      <c r="I201">
+        <v>0.215435727063634</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6026,6 +6631,9 @@
       <c r="H202">
         <v>0.5543638888786291</v>
       </c>
+      <c r="I202">
+        <v>0.2967032967032967</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6054,6 +6662,9 @@
       <c r="H203">
         <v>0.4719207748100142</v>
       </c>
+      <c r="I203">
+        <v>0.07743419371326347</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6082,6 +6693,9 @@
       <c r="H204">
         <v>0.5680492060302125</v>
       </c>
+      <c r="I204">
+        <v>0.2997699974444161</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6110,6 +6724,9 @@
       <c r="H205">
         <v>0.5642586559699148</v>
       </c>
+      <c r="I205">
+        <v>0.3784819831331459</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6138,6 +6755,9 @@
       <c r="H206">
         <v>0.6106465312972094</v>
       </c>
+      <c r="I206">
+        <v>0.2169690774341937</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6166,6 +6786,9 @@
       <c r="H207">
         <v>0.7327054564348854</v>
       </c>
+      <c r="I207">
+        <v>0.2540250447227191</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6194,6 +6817,9 @@
       <c r="H208">
         <v>0.6633033463983072</v>
       </c>
+      <c r="I208">
+        <v>0.2381804242269359</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6222,6 +6848,9 @@
       <c r="H209">
         <v>0.6048469579737961</v>
       </c>
+      <c r="I209">
+        <v>0.2742141579350882</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6250,6 +6879,9 @@
       <c r="H210">
         <v>0.5121009153694961</v>
       </c>
+      <c r="I210">
+        <v>0.03526705852287248</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6278,6 +6910,9 @@
       <c r="H211">
         <v>0.6945838764816779</v>
       </c>
+      <c r="I211">
+        <v>0.157679529772553</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6306,6 +6941,9 @@
       <c r="H212">
         <v>0.6322571874043945</v>
       </c>
+      <c r="I212">
+        <v>0.1321236902632252</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6334,6 +6972,9 @@
       <c r="H213">
         <v>0.6678163286283916</v>
       </c>
+      <c r="I213">
+        <v>0.2834142601584462</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6362,6 +7003,9 @@
       <c r="H214">
         <v>0.7232791801885035</v>
       </c>
+      <c r="I214">
+        <v>0.2772808586762075</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6390,6 +7034,9 @@
       <c r="H215">
         <v>0.5164831721023802</v>
       </c>
+      <c r="I215">
+        <v>0.2353692818809098</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6418,6 +7065,9 @@
       <c r="H216">
         <v>0.5984944328105971</v>
       </c>
+      <c r="I216">
+        <v>0.09557883976488628</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6446,6 +7096,9 @@
       <c r="H217">
         <v>0.6206759538662097</v>
       </c>
+      <c r="I217">
+        <v>0.121901354459494</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6474,6 +7127,9 @@
       <c r="H218">
         <v>0.4829925329455627</v>
       </c>
+      <c r="I218">
+        <v>0.08280092001022234</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6502,6 +7158,9 @@
       <c r="H219">
         <v>0.5795488672945869</v>
       </c>
+      <c r="I219">
+        <v>0.1198568872987478</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6530,6 +7189,9 @@
       <c r="H220">
         <v>0.5653030994492696</v>
       </c>
+      <c r="I220">
+        <v>0.1344237158190646</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6558,6 +7220,9 @@
       <c r="H221">
         <v>0.612368204776317</v>
       </c>
+      <c r="I221">
+        <v>0.1967799642218247</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6586,6 +7251,9 @@
       <c r="H222">
         <v>0.6323714977508678</v>
       </c>
+      <c r="I222">
+        <v>0.08561206235624841</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6614,6 +7282,9 @@
       <c r="H223">
         <v>0.523592170727563</v>
       </c>
+      <c r="I223">
+        <v>0.1068234091489906</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6642,6 +7313,9 @@
       <c r="H224">
         <v>0.6088949446377301</v>
       </c>
+      <c r="I224">
+        <v>0.3933043700485561</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6670,6 +7344,9 @@
       <c r="H225">
         <v>0.5659668126661505</v>
       </c>
+      <c r="I225">
+        <v>0.1259902887809864</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6698,6 +7375,9 @@
       <c r="H226">
         <v>0</v>
       </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6726,6 +7406,9 @@
       <c r="H227">
         <v>0.4805094011455851</v>
       </c>
+      <c r="I227">
+        <v>0.2075134168157424</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6754,6 +7437,9 @@
       <c r="H228">
         <v>0.5915076561901844</v>
       </c>
+      <c r="I228">
+        <v>0.1776130845898288</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6782,6 +7468,9 @@
       <c r="H229">
         <v>0</v>
       </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6810,6 +7499,9 @@
       <c r="H230">
         <v>0.3385146011164245</v>
       </c>
+      <c r="I230">
+        <v>0.1635573728596984</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6838,6 +7530,9 @@
       <c r="H231">
         <v>0.3767446812280778</v>
       </c>
+      <c r="I231">
+        <v>0.01456682852031689</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6866,6 +7561,9 @@
       <c r="H232">
         <v>0.3424608017868911</v>
       </c>
+      <c r="I232">
+        <v>0.01022233580373115</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6894,6 +7592,9 @@
       <c r="H233">
         <v>0.4471468781740496</v>
       </c>
+      <c r="I233">
+        <v>0.08918987988755431</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6922,6 +7623,9 @@
       <c r="H234">
         <v>0.4010530173378639</v>
       </c>
+      <c r="I234">
+        <v>0.02990033222591362</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6950,6 +7654,9 @@
       <c r="H235">
         <v>0.3608929831474801</v>
       </c>
+      <c r="I235">
+        <v>0.01252236135957066</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6978,6 +7685,9 @@
       <c r="H236">
         <v>0.3509881561445794</v>
       </c>
+      <c r="I236">
+        <v>0.08637873754152824</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7006,6 +7716,9 @@
       <c r="H237">
         <v>0.3879015676334396</v>
       </c>
+      <c r="I237">
+        <v>0.01865576284180935</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7034,6 +7747,9 @@
       <c r="H238">
         <v>0.4669320384115888</v>
       </c>
+      <c r="I238">
+        <v>0.008944543828264758</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7062,6 +7778,9 @@
       <c r="H239">
         <v>0.4806474766056895</v>
       </c>
+      <c r="I239">
+        <v>0.08791208791208792</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7090,6 +7809,9 @@
       <c r="H240">
         <v>0.4473125845207249</v>
       </c>
+      <c r="I240">
+        <v>0.02427804753386149</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7118,6 +7840,9 @@
       <c r="H241">
         <v>0.4080227253223134</v>
       </c>
+      <c r="I241">
+        <v>0.02453360592895477</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7146,6 +7871,9 @@
       <c r="H242">
         <v>0.556739434220571</v>
       </c>
+      <c r="I242">
+        <v>0.0784564272936366</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7174,6 +7902,9 @@
       <c r="H243">
         <v>0.3629693229648739</v>
       </c>
+      <c r="I243">
+        <v>0.003322259136212625</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7202,6 +7933,9 @@
       <c r="H244">
         <v>0.4750043365099592</v>
       </c>
+      <c r="I244">
+        <v>0.02197802197802198</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7230,6 +7964,9 @@
       <c r="H245">
         <v>0.5023199418831413</v>
       </c>
+      <c r="I245">
+        <v>0.1719907998977766</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7258,6 +7995,9 @@
       <c r="H246">
         <v>0.4200819550032492</v>
       </c>
+      <c r="I246">
+        <v>0.1625351392793253</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7286,6 +8026,9 @@
       <c r="H247">
         <v>0.3362095376286344</v>
       </c>
+      <c r="I247">
+        <v>0.008688985433171479</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7314,6 +8057,9 @@
       <c r="H248">
         <v>0.3693573525005676</v>
       </c>
+      <c r="I248">
+        <v>0.1055456171735241</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7342,6 +8088,9 @@
       <c r="H249">
         <v>0.4671250355551964</v>
       </c>
+      <c r="I249">
+        <v>0.1162790697674419</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7370,6 +8119,9 @@
       <c r="H250">
         <v>0.3941548766467846</v>
       </c>
+      <c r="I250">
+        <v>0.01865576284180935</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7398,6 +8150,9 @@
       <c r="H251">
         <v>0.4790636501104165</v>
       </c>
+      <c r="I251">
+        <v>0.1339125990288781</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7426,6 +8181,9 @@
       <c r="H252">
         <v>0.4262077429135475</v>
       </c>
+      <c r="I252">
+        <v>0.04906721185790953</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7454,6 +8212,9 @@
       <c r="H253">
         <v>0.3908873234000071</v>
       </c>
+      <c r="I253">
+        <v>0.007666751852798364</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7482,6 +8243,9 @@
       <c r="H254">
         <v>0.4458821862569828</v>
       </c>
+      <c r="I254">
+        <v>0.3005366726296959</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7510,6 +8274,9 @@
       <c r="H255">
         <v>0.395982978615116</v>
       </c>
+      <c r="I255">
+        <v>0.2139023766930744</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7538,6 +8305,9 @@
       <c r="H256">
         <v>0.6585245589627211</v>
       </c>
+      <c r="I256">
+        <v>0.4477383082034245</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7566,6 +8336,9 @@
       <c r="H257">
         <v>0.5837221930178247</v>
       </c>
+      <c r="I257">
+        <v>0.8668540761564018</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7594,6 +8367,9 @@
       <c r="H258">
         <v>0.3625734774017842</v>
       </c>
+      <c r="I258">
+        <v>0.08305647840531562</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7622,6 +8398,9 @@
       <c r="H259">
         <v>0.4938440536851539</v>
       </c>
+      <c r="I259">
+        <v>0.1290569895221058</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7650,6 +8429,9 @@
       <c r="H260">
         <v>0.4887557157171215</v>
       </c>
+      <c r="I260">
+        <v>0.5254280603117812</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7678,6 +8460,9 @@
       <c r="H261">
         <v>0.4337119538839018</v>
       </c>
+      <c r="I261">
+        <v>0.2213135701507795</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7706,6 +8491,9 @@
       <c r="H262">
         <v>0.5590891281768543</v>
       </c>
+      <c r="I262">
+        <v>0.2864809608995655</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7734,6 +8522,9 @@
       <c r="H263">
         <v>0.4802745592542066</v>
       </c>
+      <c r="I263">
+        <v>0.867109634551495</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7762,6 +8553,9 @@
       <c r="H264">
         <v>0.4238688256389047</v>
       </c>
+      <c r="I264">
+        <v>0.6125734730385893</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7790,6 +8584,9 @@
       <c r="H265">
         <v>0.5112934360574566</v>
       </c>
+      <c r="I265">
+        <v>0.3759263991822132</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7818,6 +8615,9 @@
       <c r="H266">
         <v>0.4804012809494995</v>
       </c>
+      <c r="I266">
+        <v>0.1022233580373115</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7846,6 +8646,9 @@
       <c r="H267">
         <v>0.3622035374341396</v>
       </c>
+      <c r="I267">
+        <v>0.03705596728852543</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7874,6 +8677,9 @@
       <c r="H268">
         <v>0.3696765608033984</v>
       </c>
+      <c r="I268">
+        <v>0.06721185790953232</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7902,6 +8708,9 @@
       <c r="H269">
         <v>0.4090461094135731</v>
       </c>
+      <c r="I269">
+        <v>0.0615895732174802</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7930,6 +8739,9 @@
       <c r="H270">
         <v>0.421654558634406</v>
       </c>
+      <c r="I270">
+        <v>0.0470227446971633</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7958,6 +8770,9 @@
       <c r="H271">
         <v>0.375384876250338</v>
       </c>
+      <c r="I271">
+        <v>0.05928954766164068</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7986,6 +8801,9 @@
       <c r="H272">
         <v>0.3583504448698356</v>
       </c>
+      <c r="I272">
+        <v>0.1801686685407616</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8014,6 +8832,9 @@
       <c r="H273">
         <v>0.4378390334286204</v>
       </c>
+      <c r="I273">
+        <v>0.03603373370815231</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8042,6 +8863,9 @@
       <c r="H274">
         <v>0.5129770125110511</v>
       </c>
+      <c r="I274">
+        <v>0.1298236647073856</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8070,6 +8894,9 @@
       <c r="H275">
         <v>0.4260426257599322</v>
       </c>
+      <c r="I275">
+        <v>0.1175568617429083</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8098,6 +8925,9 @@
       <c r="H276">
         <v>0.4071149731693418</v>
       </c>
+      <c r="I276">
+        <v>0.07053411704574496</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8126,6 +8956,9 @@
       <c r="H277">
         <v>0.4323340832387518</v>
       </c>
+      <c r="I277">
+        <v>0.09711219013544595</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8154,6 +8987,9 @@
       <c r="H278">
         <v>0.3515110740366012</v>
       </c>
+      <c r="I278">
+        <v>0.04830053667262969</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8182,6 +9018,9 @@
       <c r="H279">
         <v>0.364517146101417</v>
       </c>
+      <c r="I279">
+        <v>0.04600051111679019</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8210,6 +9049,9 @@
       <c r="H280">
         <v>0.3985880243486797</v>
       </c>
+      <c r="I280">
+        <v>0.02760030667007411</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8238,6 +9080,9 @@
       <c r="H281">
         <v>0.2889108467760659</v>
       </c>
+      <c r="I281">
+        <v>0.05213391259902888</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8266,6 +9111,9 @@
       <c r="H282">
         <v>0.4221103425586469</v>
       </c>
+      <c r="I282">
+        <v>0.05443393815486839</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8294,6 +9142,9 @@
       <c r="H283">
         <v>0.3138493033821486</v>
       </c>
+      <c r="I283">
+        <v>0.01712241247124968</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8322,6 +9173,9 @@
       <c r="H284">
         <v>0.4616478397540317</v>
       </c>
+      <c r="I284">
+        <v>0.2491694352159468</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8350,6 +9204,9 @@
       <c r="H285">
         <v>0.4748963331823535</v>
       </c>
+      <c r="I285">
+        <v>0.1939688218757986</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8378,6 +9235,9 @@
       <c r="H286">
         <v>0.3605759765489348</v>
       </c>
+      <c r="I286">
+        <v>0.03654485049833887</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8406,6 +9266,9 @@
       <c r="H287">
         <v>0.376020606290416</v>
       </c>
+      <c r="I287">
+        <v>0.143879376437516</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8434,6 +9297,9 @@
       <c r="H288">
         <v>0.450620695382165</v>
       </c>
+      <c r="I288">
+        <v>0.1765908510094557</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8462,6 +9328,9 @@
       <c r="H289">
         <v>0.3135986318672984</v>
       </c>
+      <c r="I289">
+        <v>0.08075645284947611</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8490,6 +9359,9 @@
       <c r="H290">
         <v>0.4782898698857825</v>
       </c>
+      <c r="I290">
+        <v>0.03220035778175313</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8518,6 +9390,9 @@
       <c r="H291">
         <v>0.5379985423537342</v>
       </c>
+      <c r="I291">
+        <v>0.03066700741119346</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8546,6 +9421,9 @@
       <c r="H292">
         <v>0.5430107120372718</v>
       </c>
+      <c r="I292">
+        <v>0.02683363148479427</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8574,6 +9452,9 @@
       <c r="H293">
         <v>0.554783031017568</v>
       </c>
+      <c r="I293">
+        <v>0.04012266802964477</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8602,6 +9483,9 @@
       <c r="H294">
         <v>0.6039531459608445</v>
       </c>
+      <c r="I294">
+        <v>0.02708918987988755</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8630,6 +9514,9 @@
       <c r="H295">
         <v>0.4356071549593661</v>
       </c>
+      <c r="I295">
+        <v>0.01175568617429083</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8658,6 +9545,9 @@
       <c r="H296">
         <v>0.5607932750427518</v>
       </c>
+      <c r="I296">
+        <v>0.04753386148734986</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8686,6 +9576,9 @@
       <c r="H297">
         <v>0.6003682384480353</v>
       </c>
+      <c r="I297">
+        <v>0.1190902121134679</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8714,6 +9607,9 @@
       <c r="H298">
         <v>0.5106507427842081</v>
       </c>
+      <c r="I298">
+        <v>0.1474571939688219</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8742,6 +9638,9 @@
       <c r="H299">
         <v>0.4121854364135172</v>
       </c>
+      <c r="I299">
+        <v>0.01354459493994378</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8770,6 +9669,9 @@
       <c r="H300">
         <v>0.4511565464842974</v>
       </c>
+      <c r="I300">
+        <v>0.006644518272425249</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8797,6 +9699,9 @@
       </c>
       <c r="H301">
         <v>0.5654468740339744</v>
+      </c>
+      <c r="I301">
+        <v>0.06056733963710708</v>
       </c>
     </row>
   </sheetData>

--- a/Pre_Processing/abiotic_mi_sampling/lab_ml_wd_v.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/lab_ml_wd_v.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>wd_cm</t>
+          <t>wd_m</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="D2">
         <v>2734822.966</v>
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="D3">
         <v>2734821.586</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D4">
         <v>2734820.122</v>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D5">
         <v>2734822.048</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D6">
         <v>2734820.51</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D7">
         <v>2734819.422</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="D8">
         <v>2734842.711</v>
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D9">
         <v>2734840.93</v>
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
         <v>2734839.109</v>
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <v>2734848.046</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D12">
         <v>2734847.009</v>
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D13">
         <v>2734844.813</v>
@@ -783,10 +783,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D14">
         <v>2736794.555</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="D15">
         <v>2736795.293</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="D16">
         <v>2736797.722</v>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D17">
         <v>2736788.393</v>
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="D18">
         <v>2736790.236</v>
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="D19">
         <v>2736791.653</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D20">
         <v>2736779.218</v>
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D21">
         <v>2736779.933</v>
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="D22">
         <v>2736780.461</v>
@@ -1062,10 +1062,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="D23">
         <v>2736773.965</v>
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D24">
         <v>2736774.94</v>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D25">
         <v>2736775.968</v>
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D26">
         <v>2729452.93</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D27">
         <v>2729453.503</v>
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>0.62</v>
       </c>
       <c r="D28">
         <v>2729455.95</v>
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D29">
         <v>2729467.877</v>
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D30">
         <v>2729468.705</v>
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>1.29</v>
       </c>
       <c r="C31">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D31">
         <v>2729472.058</v>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D32">
         <v>2729479.749</v>
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>0.91</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D33">
         <v>2729481.799</v>
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="B34">
-        <v>76</v>
+        <v>0.76</v>
       </c>
       <c r="C34">
-        <v>67</v>
+        <v>0.67</v>
       </c>
       <c r="D34">
         <v>2729484.994</v>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="D35">
         <v>2729492.519</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="B36">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="D36">
         <v>2729492.55</v>
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="B37">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C37">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D37">
         <v>2729483.169</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="D38">
         <v>2724226.173</v>
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D39">
         <v>2724223.029</v>
@@ -1589,10 +1589,10 @@
         </is>
       </c>
       <c r="B40">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C40">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D40">
         <v>2724220.552</v>
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D41">
         <v>2724246.208</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D42">
         <v>2724242.675</v>
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C43">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D43">
         <v>2724239.893</v>
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="D44">
         <v>2724271.197</v>
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D45">
         <v>2724266.559</v>
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C46">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="D46">
         <v>2724262.863</v>
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D47">
         <v>2724301.635</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="B48">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D48">
         <v>2724299.362</v>
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B49">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="D49">
         <v>2724296.812</v>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D50">
         <v>2723228.944</v>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B51">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="D51">
         <v>2723231.037</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B52">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="C52">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="D52">
         <v>2723233.635</v>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="D53">
         <v>2723247.566</v>
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="B54">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C54">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D54">
         <v>2723247.176</v>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="C55">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="D55">
         <v>2723253.1</v>
@@ -2085,10 +2085,10 @@
         </is>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C56">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D56">
         <v>2723269.258</v>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>0.62</v>
       </c>
       <c r="C57">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D57">
         <v>2723272.918</v>
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="B58">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C58">
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="D58">
         <v>2723280.564</v>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="D59">
         <v>2723285.605</v>
@@ -2209,10 +2209,10 @@
         </is>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C60">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D60">
         <v>2723291.038</v>
@@ -2240,10 +2240,10 @@
         </is>
       </c>
       <c r="B61">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="C61">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D61">
         <v>2723297.98</v>
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D62">
         <v>2723366.066</v>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="B63">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C63">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D63">
         <v>2723359.849</v>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B64">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C64">
-        <v>77</v>
+        <v>0.77</v>
       </c>
       <c r="D64">
         <v>2723353.398</v>
@@ -2364,10 +2364,10 @@
         </is>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D65">
         <v>2723333.9</v>
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D66">
         <v>2723329.101</v>
@@ -2426,10 +2426,10 @@
         </is>
       </c>
       <c r="B67">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C67">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="D67">
         <v>2723325.553</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="D68">
         <v>2723215.171</v>
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="B69">
-        <v>139</v>
+        <v>1.39</v>
       </c>
       <c r="C69">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="D69">
         <v>2723201.949</v>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="B70">
-        <v>135</v>
+        <v>1.35</v>
       </c>
       <c r="C70">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="D70">
         <v>2723184.903</v>
@@ -2550,10 +2550,10 @@
         </is>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D71">
         <v>2723219.139</v>
@@ -2581,10 +2581,10 @@
         </is>
       </c>
       <c r="B72">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C72">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D72">
         <v>2723211.554</v>
@@ -2612,10 +2612,10 @@
         </is>
       </c>
       <c r="B73">
-        <v>94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C73">
-        <v>71</v>
+        <v>0.71</v>
       </c>
       <c r="D73">
         <v>2723203.218</v>
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="D74">
         <v>2742136.499</v>
@@ -2674,10 +2674,10 @@
         </is>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C75">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="D75">
         <v>2742133.302</v>
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C76">
-        <v>106</v>
+        <v>1.06</v>
       </c>
       <c r="D76">
         <v>2742128.621</v>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D77">
         <v>2742123.285</v>
@@ -2767,10 +2767,10 @@
         </is>
       </c>
       <c r="B78">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="C78">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D78">
         <v>2742118.852</v>
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B79">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C79">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D79">
         <v>2742116.269</v>
@@ -2829,10 +2829,10 @@
         </is>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C80">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="D80">
         <v>2742118.569</v>
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="B81">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C81">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="D81">
         <v>2742115.15</v>
@@ -2891,10 +2891,10 @@
         </is>
       </c>
       <c r="B82">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="C82">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="D82">
         <v>2742112.858</v>
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C83">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D83">
         <v>2742159.694</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C84">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D84">
         <v>2742154.977</v>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="B85">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C85">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="D85">
         <v>2742150.3</v>
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C86">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D86">
         <v>2743458.686</v>
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="B87">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C87">
-        <v>76</v>
+        <v>0.76</v>
       </c>
       <c r="D87">
         <v>2743462.07</v>
@@ -3077,10 +3077,10 @@
         </is>
       </c>
       <c r="B88">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C88">
-        <v>91</v>
+        <v>0.91</v>
       </c>
       <c r="D88">
         <v>2743464.677</v>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D89">
         <v>2743416.296</v>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="B90">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C90">
-        <v>46</v>
+        <v>0.46</v>
       </c>
       <c r="D90">
         <v>2743416.808</v>
@@ -3170,10 +3170,10 @@
         </is>
       </c>
       <c r="B91">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="C91">
-        <v>68</v>
+        <v>0.68</v>
       </c>
       <c r="D91">
         <v>2743417.595</v>
@@ -3201,10 +3201,10 @@
         </is>
       </c>
       <c r="B92">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C92">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="D92">
         <v>2743372.595</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="B93">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="C93">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D93">
         <v>2743369.91</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B94">
-        <v>113</v>
+        <v>1.13</v>
       </c>
       <c r="C94">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="D94">
         <v>2743363.472</v>
@@ -3294,10 +3294,10 @@
         </is>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C95">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D95">
         <v>2743378.786</v>
@@ -3325,10 +3325,10 @@
         </is>
       </c>
       <c r="B96">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C96">
-        <v>77</v>
+        <v>0.77</v>
       </c>
       <c r="D96">
         <v>2743375.546</v>
@@ -3356,10 +3356,10 @@
         </is>
       </c>
       <c r="B97">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C97">
-        <v>82</v>
+        <v>0.82</v>
       </c>
       <c r="D97">
         <v>2743372.187</v>
@@ -3387,10 +3387,10 @@
         </is>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C98">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D98">
         <v>2743332.409</v>
@@ -3418,10 +3418,10 @@
         </is>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="C99">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D99">
         <v>2743330.389</v>
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C100">
-        <v>89</v>
+        <v>0.89</v>
       </c>
       <c r="D100">
         <v>2743329.05</v>
@@ -3480,10 +3480,10 @@
         </is>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C101">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="D101">
         <v>2743344.568</v>
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="B102">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C102">
-        <v>57</v>
+        <v>0.57</v>
       </c>
       <c r="D102">
         <v>2743343.282</v>
@@ -3542,10 +3542,10 @@
         </is>
       </c>
       <c r="B103">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C103">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="D103">
         <v>2743342.309</v>
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B104">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C104">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="D104">
         <v>2743350.691</v>
@@ -3604,10 +3604,10 @@
         </is>
       </c>
       <c r="B105">
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="C105">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D105">
         <v>2743349.449</v>
@@ -3635,10 +3635,10 @@
         </is>
       </c>
       <c r="B106">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C106">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="D106">
         <v>2743347.875</v>
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C107">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="D107">
         <v>2743380.451</v>
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C108">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D108">
         <v>2743380.779</v>
@@ -3728,10 +3728,10 @@
         </is>
       </c>
       <c r="B109">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C109">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D109">
         <v>2743380.264</v>
@@ -3759,10 +3759,10 @@
         </is>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C110">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="D110">
         <v>2734155.885</v>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C111">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="D111">
         <v>2734160.239</v>
@@ -3821,10 +3821,10 @@
         </is>
       </c>
       <c r="B112">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C112">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="D112">
         <v>2734164.721</v>
@@ -3852,10 +3852,10 @@
         </is>
       </c>
       <c r="B113">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C113">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D113">
         <v>2734187.861</v>
@@ -3883,10 +3883,10 @@
         </is>
       </c>
       <c r="B114">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C114">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D114">
         <v>2734194.159</v>
@@ -3914,10 +3914,10 @@
         </is>
       </c>
       <c r="B115">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="C115">
-        <v>62</v>
+        <v>0.62</v>
       </c>
       <c r="D115">
         <v>2734197.665</v>
@@ -3945,10 +3945,10 @@
         </is>
       </c>
       <c r="B116">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C116">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="D116">
         <v>2734202.938</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B117">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C117">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D117">
         <v>2734208.986</v>
@@ -4007,10 +4007,10 @@
         </is>
       </c>
       <c r="B118">
-        <v>94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C118">
-        <v>59</v>
+        <v>0.59</v>
       </c>
       <c r="D118">
         <v>2734215.143</v>
@@ -4038,10 +4038,10 @@
         </is>
       </c>
       <c r="B119">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C119">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="D119">
         <v>2734224.145</v>
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="B120">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C120">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D120">
         <v>2734231.618</v>
@@ -4100,10 +4100,10 @@
         </is>
       </c>
       <c r="B121">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C121">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="D121">
         <v>2734235.725</v>
@@ -4131,10 +4131,10 @@
         </is>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C122">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D122">
         <v>2576387.499</v>
@@ -4162,10 +4162,10 @@
         </is>
       </c>
       <c r="B123">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="C123">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="D123">
         <v>2576389.998</v>
@@ -4193,10 +4193,10 @@
         </is>
       </c>
       <c r="B124">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C124">
-        <v>46</v>
+        <v>0.46</v>
       </c>
       <c r="D124">
         <v>2576391.39</v>
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D125">
         <v>2576354.563</v>
@@ -4255,10 +4255,10 @@
         </is>
       </c>
       <c r="B126">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="C126">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="D126">
         <v>2576357.847</v>
@@ -4286,10 +4286,10 @@
         </is>
       </c>
       <c r="B127">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="C127">
-        <v>58</v>
+        <v>0.58</v>
       </c>
       <c r="D127">
         <v>2576359.485</v>
@@ -4317,10 +4317,10 @@
         </is>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D128">
         <v>2576331.741</v>
@@ -4348,10 +4348,10 @@
         </is>
       </c>
       <c r="B129">
-        <v>109</v>
+        <v>1.09</v>
       </c>
       <c r="C129">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D129">
         <v>2576333.64</v>
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="B130">
-        <v>102</v>
+        <v>1.02</v>
       </c>
       <c r="C130">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D130">
         <v>2576335.269</v>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C131">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D131">
         <v>2576316.104</v>
@@ -4441,10 +4441,10 @@
         </is>
       </c>
       <c r="B132">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="C132">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D132">
         <v>2576317.881</v>
@@ -4472,10 +4472,10 @@
         </is>
       </c>
       <c r="B133">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C133">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D133">
         <v>2576319.414</v>
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="C134">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="D134">
         <v>2575586.286</v>
@@ -4534,10 +4534,10 @@
         </is>
       </c>
       <c r="B135">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="C135">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D135">
         <v>2575582.185</v>
@@ -4565,10 +4565,10 @@
         </is>
       </c>
       <c r="B136">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C136">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D136">
         <v>2575578.339</v>
@@ -4596,10 +4596,10 @@
         </is>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="C137">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="D137">
         <v>2575585.106</v>
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="B138">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C138">
-        <v>29</v>
+        <v>0.29</v>
       </c>
       <c r="D138">
         <v>2575580.608</v>
@@ -4658,10 +4658,10 @@
         </is>
       </c>
       <c r="B139">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C139">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="D139">
         <v>2575576.93</v>
@@ -4689,10 +4689,10 @@
         </is>
       </c>
       <c r="B140">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="C140">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="D140">
         <v>2575584.319</v>
@@ -4720,10 +4720,10 @@
         </is>
       </c>
       <c r="B141">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="C141">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D141">
         <v>2575579.283</v>
@@ -4751,10 +4751,10 @@
         </is>
       </c>
       <c r="B142">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="C142">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D142">
         <v>2575575.53</v>
@@ -4782,10 +4782,10 @@
         </is>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D143">
         <v>2575595.907</v>
@@ -4813,10 +4813,10 @@
         </is>
       </c>
       <c r="B144">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="C144">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D144">
         <v>2575589.22</v>
@@ -4844,10 +4844,10 @@
         </is>
       </c>
       <c r="B145">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="C145">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D145">
         <v>2575583.262</v>
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D146">
         <v>2579336.846</v>
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="B147">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="C147">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D147">
         <v>2579340.226</v>
@@ -4937,10 +4937,10 @@
         </is>
       </c>
       <c r="B148">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C148">
-        <v>56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D148">
         <v>2579342.199</v>
@@ -4968,10 +4968,10 @@
         </is>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="C149">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D149">
         <v>2579351.752</v>
@@ -4999,10 +4999,10 @@
         </is>
       </c>
       <c r="B150">
-        <v>57</v>
+        <v>0.57</v>
       </c>
       <c r="C150">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="D150">
         <v>2579354.745</v>
@@ -5030,10 +5030,10 @@
         </is>
       </c>
       <c r="B151">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="C151">
-        <v>62</v>
+        <v>0.62</v>
       </c>
       <c r="D151">
         <v>2579360.786</v>
@@ -5061,10 +5061,10 @@
         </is>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D152">
         <v>2579367.687</v>
@@ -5092,10 +5092,10 @@
         </is>
       </c>
       <c r="B153">
-        <v>82</v>
+        <v>0.82</v>
       </c>
       <c r="C153">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D153">
         <v>2579371.137</v>
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="B154">
-        <v>122</v>
+        <v>1.22</v>
       </c>
       <c r="C154">
-        <v>56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D154">
         <v>2579372.832</v>
@@ -5154,10 +5154,10 @@
         </is>
       </c>
       <c r="B155">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D155">
         <v>2579383.987</v>
@@ -5185,10 +5185,10 @@
         </is>
       </c>
       <c r="B156">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="C156">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D156">
         <v>2579388.171</v>
@@ -5216,10 +5216,10 @@
         </is>
       </c>
       <c r="B157">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C157">
-        <v>59</v>
+        <v>0.59</v>
       </c>
       <c r="D157">
         <v>2579391.292</v>
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D158">
         <v>2584537.727</v>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="B159">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="C159">
-        <v>29</v>
+        <v>0.29</v>
       </c>
       <c r="D159">
         <v>2584530.12</v>
@@ -5309,10 +5309,10 @@
         </is>
       </c>
       <c r="B160">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C160">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="D160">
         <v>2584524.207</v>
@@ -5340,10 +5340,10 @@
         </is>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C161">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D161">
         <v>2584513.192</v>
@@ -5371,10 +5371,10 @@
         </is>
       </c>
       <c r="B162">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C162">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D162">
         <v>2584504.443</v>
@@ -5402,10 +5402,10 @@
         </is>
       </c>
       <c r="B163">
-        <v>58</v>
+        <v>0.58</v>
       </c>
       <c r="C163">
-        <v>88</v>
+        <v>0.88</v>
       </c>
       <c r="D163">
         <v>2584500.077</v>
@@ -5433,10 +5433,10 @@
         </is>
       </c>
       <c r="B164">
-        <v>7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C164">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D164">
         <v>2584473.553</v>
@@ -5464,10 +5464,10 @@
         </is>
       </c>
       <c r="B165">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="C165">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D165">
         <v>2584461.481</v>
@@ -5495,10 +5495,10 @@
         </is>
       </c>
       <c r="B166">
-        <v>117</v>
+        <v>1.17</v>
       </c>
       <c r="C166">
-        <v>76</v>
+        <v>0.76</v>
       </c>
       <c r="D166">
         <v>2584454.101</v>
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="B167">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="C167">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="D167">
         <v>2584458.622</v>
@@ -5557,10 +5557,10 @@
         </is>
       </c>
       <c r="B168">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="C168">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D168">
         <v>2584449.091</v>
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="B169">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="C169">
-        <v>59</v>
+        <v>0.59</v>
       </c>
       <c r="D169">
         <v>2584440.652</v>
@@ -5619,10 +5619,10 @@
         </is>
       </c>
       <c r="B170">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="C170">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D170">
         <v>2768906.248</v>
@@ -5650,10 +5650,10 @@
         </is>
       </c>
       <c r="B171">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="C171">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="D171">
         <v>2768905.497</v>
@@ -5681,10 +5681,10 @@
         </is>
       </c>
       <c r="B172">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C172">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D172">
         <v>2768905.85</v>
@@ -5712,10 +5712,10 @@
         </is>
       </c>
       <c r="B173">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C173">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="D173">
         <v>2768943.691</v>
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="B174">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="C174">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D174">
         <v>2768943.608</v>
@@ -5774,10 +5774,10 @@
         </is>
       </c>
       <c r="B175">
-        <v>78</v>
+        <v>0.78</v>
       </c>
       <c r="C175">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="D175">
         <v>2768943.348</v>
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B176">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C176">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D176">
         <v>2769001.048</v>
@@ -5836,10 +5836,10 @@
         </is>
       </c>
       <c r="B177">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C177">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D177">
         <v>2769000.714</v>
@@ -5867,10 +5867,10 @@
         </is>
       </c>
       <c r="B178">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="C178">
-        <v>57</v>
+        <v>0.57</v>
       </c>
       <c r="D178">
         <v>2768999.514</v>
@@ -5898,10 +5898,10 @@
         </is>
       </c>
       <c r="B179">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C179">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D179">
         <v>2769032.368</v>
@@ -5929,10 +5929,10 @@
         </is>
       </c>
       <c r="B180">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="C180">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="D180">
         <v>2769032.741</v>
@@ -5960,10 +5960,10 @@
         </is>
       </c>
       <c r="B181">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="C181">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="D181">
         <v>2769032.84</v>
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C182">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="D182">
         <v>2779182.3</v>
@@ -6022,10 +6022,10 @@
         </is>
       </c>
       <c r="B183">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C183">
-        <v>56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D183">
         <v>2779181.994</v>
@@ -6053,10 +6053,10 @@
         </is>
       </c>
       <c r="B184">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C184">
-        <v>58</v>
+        <v>0.58</v>
       </c>
       <c r="D184">
         <v>2779182.708</v>
@@ -6084,10 +6084,10 @@
         </is>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C185">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D185">
         <v>2779193.191</v>
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="B186">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C186">
-        <v>58</v>
+        <v>0.58</v>
       </c>
       <c r="D186">
         <v>2779193.201</v>
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="B187">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="C187">
-        <v>103</v>
+        <v>1.03</v>
       </c>
       <c r="D187">
         <v>2779193.912</v>
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="B188">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="C188">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="D188">
         <v>2779242.354</v>
@@ -6208,10 +6208,10 @@
         </is>
       </c>
       <c r="B189">
-        <v>54</v>
+        <v>0.54</v>
       </c>
       <c r="C189">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D189">
         <v>2779244.929</v>
@@ -6239,10 +6239,10 @@
         </is>
       </c>
       <c r="B190">
-        <v>96</v>
+        <v>0.96</v>
       </c>
       <c r="C190">
-        <v>58</v>
+        <v>0.58</v>
       </c>
       <c r="D190">
         <v>2779245.431</v>
@@ -6270,10 +6270,10 @@
         </is>
       </c>
       <c r="B191">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="C191">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="D191">
         <v>2779255.123</v>
@@ -6301,10 +6301,10 @@
         </is>
       </c>
       <c r="B192">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="C192">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D192">
         <v>2779257.195</v>
@@ -6332,10 +6332,10 @@
         </is>
       </c>
       <c r="B193">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="C193">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="D193">
         <v>2779257.728</v>
@@ -6363,10 +6363,10 @@
         </is>
       </c>
       <c r="B194">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C194">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D194">
         <v>2777147.747</v>
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="B195">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="C195">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="D195">
         <v>2777148.101</v>
@@ -6425,10 +6425,10 @@
         </is>
       </c>
       <c r="B196">
-        <v>77</v>
+        <v>0.77</v>
       </c>
       <c r="C196">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="D196">
         <v>2777149.204</v>
@@ -6456,10 +6456,10 @@
         </is>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C197">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D197">
         <v>2777156.023</v>
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="B198">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C198">
-        <v>71</v>
+        <v>0.71</v>
       </c>
       <c r="D198">
         <v>2777154.81</v>
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B199">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="C199">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="D199">
         <v>2777154.859</v>
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="B200">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C200">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D200">
         <v>2777279.658</v>
@@ -6580,10 +6580,10 @@
         </is>
       </c>
       <c r="B201">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="C201">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D201">
         <v>2777281.145</v>
@@ -6611,10 +6611,10 @@
         </is>
       </c>
       <c r="B202">
-        <v>124</v>
+        <v>1.24</v>
       </c>
       <c r="C202">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D202">
         <v>2777282.005</v>
@@ -6642,10 +6642,10 @@
         </is>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C203">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="D203">
         <v>2777292.361</v>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="B204">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="C204">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="D204">
         <v>2777292.592</v>
@@ -6704,10 +6704,10 @@
         </is>
       </c>
       <c r="B205">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C205">
-        <v>56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D205">
         <v>2777294.528</v>
@@ -6735,10 +6735,10 @@
         </is>
       </c>
       <c r="B206">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="C206">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D206">
         <v>2773062.092</v>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B207">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C207">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="D207">
         <v>2773060.541</v>
@@ -6797,10 +6797,10 @@
         </is>
       </c>
       <c r="B208">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C208">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D208">
         <v>2773058.967</v>
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B209">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C209">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D209">
         <v>2773064.408</v>
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="B210">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C210">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D210">
         <v>2773063.811</v>
@@ -6890,10 +6890,10 @@
         </is>
       </c>
       <c r="B211">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="C211">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="D211">
         <v>2773063.333</v>
@@ -6921,10 +6921,10 @@
         </is>
       </c>
       <c r="B212">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C212">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="D212">
         <v>2773068.977</v>
@@ -6952,10 +6952,10 @@
         </is>
       </c>
       <c r="B213">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="C213">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D213">
         <v>2773068.303</v>
@@ -6983,10 +6983,10 @@
         </is>
       </c>
       <c r="B214">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C214">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="D214">
         <v>2773066.053</v>
@@ -7014,10 +7014,10 @@
         </is>
       </c>
       <c r="B215">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C215">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D215">
         <v>2773072.626</v>
@@ -7045,10 +7045,10 @@
         </is>
       </c>
       <c r="B216">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C216">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D216">
         <v>2773071.878</v>
@@ -7076,10 +7076,10 @@
         </is>
       </c>
       <c r="B217">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C217">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="D217">
         <v>2773071.054</v>
@@ -7107,10 +7107,10 @@
         </is>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C218">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D218">
         <v>2773014.557</v>
@@ -7138,10 +7138,10 @@
         </is>
       </c>
       <c r="B219">
-        <v>81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C219">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="D219">
         <v>2773012.586</v>
@@ -7169,10 +7169,10 @@
         </is>
       </c>
       <c r="B220">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C220">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D220">
         <v>2773011.689</v>
@@ -7200,10 +7200,10 @@
         </is>
       </c>
       <c r="B221">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="C221">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D221">
         <v>2773017.035</v>
@@ -7231,10 +7231,10 @@
         </is>
       </c>
       <c r="B222">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="C222">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D222">
         <v>2773016.202</v>
@@ -7262,10 +7262,10 @@
         </is>
       </c>
       <c r="B223">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C223">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="D223">
         <v>2773015.04</v>
@@ -7293,10 +7293,10 @@
         </is>
       </c>
       <c r="B224">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="C224">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="D224">
         <v>2773022.819</v>
@@ -7324,10 +7324,10 @@
         </is>
       </c>
       <c r="B225">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C225">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D225">
         <v>2773021.465</v>
@@ -7355,10 +7355,10 @@
         </is>
       </c>
       <c r="B226">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C226">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D226">
         <v>2773019.962</v>
@@ -7386,10 +7386,10 @@
         </is>
       </c>
       <c r="B227">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="C227">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D227">
         <v>2773034.839</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="B228">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="C228">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D228">
         <v>2773034.254</v>
@@ -7448,10 +7448,10 @@
         </is>
       </c>
       <c r="B229">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="C229">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D229">
         <v>2773032.65</v>
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C230">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="D230">
         <v>2746361.002</v>
@@ -7510,10 +7510,10 @@
         </is>
       </c>
       <c r="B231">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="C231">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="D231">
         <v>2746367.015</v>
@@ -7541,10 +7541,10 @@
         </is>
       </c>
       <c r="B232">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="C232">
-        <v>92</v>
+        <v>0.92</v>
       </c>
       <c r="D232">
         <v>2746372.339</v>
@@ -7572,10 +7572,10 @@
         </is>
       </c>
       <c r="B233">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="C233">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="D233">
         <v>2746263.522</v>
@@ -7603,10 +7603,10 @@
         </is>
       </c>
       <c r="B234">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C234">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="D234">
         <v>2746264.819</v>
@@ -7634,10 +7634,10 @@
         </is>
       </c>
       <c r="B235">
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="C235">
-        <v>92</v>
+        <v>0.92</v>
       </c>
       <c r="D235">
         <v>2746265.921</v>
@@ -7665,10 +7665,10 @@
         </is>
       </c>
       <c r="B236">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C236">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="D236">
         <v>2746178.854</v>
@@ -7696,10 +7696,10 @@
         </is>
       </c>
       <c r="B237">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="C237">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="D237">
         <v>2746178.552</v>
@@ -7727,10 +7727,10 @@
         </is>
       </c>
       <c r="B238">
-        <v>130</v>
+        <v>1.3</v>
       </c>
       <c r="C238">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="D238">
         <v>2746178.843</v>
@@ -7758,10 +7758,10 @@
         </is>
       </c>
       <c r="B239">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="C239">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D239">
         <v>2746128.403</v>
@@ -7789,10 +7789,10 @@
         </is>
       </c>
       <c r="B240">
-        <v>103</v>
+        <v>1.03</v>
       </c>
       <c r="C240">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D240">
         <v>2746126.101</v>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="B241">
-        <v>152</v>
+        <v>1.52</v>
       </c>
       <c r="C241">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="D241">
         <v>2746123.583</v>
@@ -7851,10 +7851,10 @@
         </is>
       </c>
       <c r="B242">
-        <v>29</v>
+        <v>0.29</v>
       </c>
       <c r="C242">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="D242">
         <v>2737473.074</v>
@@ -7882,10 +7882,10 @@
         </is>
       </c>
       <c r="B243">
-        <v>68</v>
+        <v>0.68</v>
       </c>
       <c r="C243">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D243">
         <v>2737471.948</v>
@@ -7913,10 +7913,10 @@
         </is>
       </c>
       <c r="B244">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="C244">
-        <v>81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D244">
         <v>2737470.146</v>
@@ -7944,10 +7944,10 @@
         </is>
       </c>
       <c r="B245">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C245">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D245">
         <v>2737486.904</v>
@@ -7975,10 +7975,10 @@
         </is>
       </c>
       <c r="B246">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C246">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D246">
         <v>2737486.324</v>
@@ -8006,10 +8006,10 @@
         </is>
       </c>
       <c r="B247">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="C247">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="D247">
         <v>2737485.114</v>
@@ -8037,10 +8037,10 @@
         </is>
       </c>
       <c r="B248">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="C248">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D248">
         <v>2737514.831</v>
@@ -8068,10 +8068,10 @@
         </is>
       </c>
       <c r="B249">
-        <v>104</v>
+        <v>1.04</v>
       </c>
       <c r="C249">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D249">
         <v>2737514.786</v>
@@ -8099,10 +8099,10 @@
         </is>
       </c>
       <c r="B250">
-        <v>163</v>
+        <v>1.63</v>
       </c>
       <c r="C250">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="D250">
         <v>2737514.604</v>
@@ -8130,10 +8130,10 @@
         </is>
       </c>
       <c r="B251">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C251">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="D251">
         <v>2737557.603</v>
@@ -8161,10 +8161,10 @@
         </is>
       </c>
       <c r="B252">
-        <v>98</v>
+        <v>0.98</v>
       </c>
       <c r="C252">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="D252">
         <v>2737558.256</v>
@@ -8192,10 +8192,10 @@
         </is>
       </c>
       <c r="B253">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C253">
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="D253">
         <v>2737557.385</v>
@@ -8223,10 +8223,10 @@
         </is>
       </c>
       <c r="B254">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C254">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D254">
         <v>2724032.757</v>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="B255">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C255">
-        <v>92</v>
+        <v>0.92</v>
       </c>
       <c r="D255">
         <v>2724031.554</v>
@@ -8285,10 +8285,10 @@
         </is>
       </c>
       <c r="B256">
-        <v>105</v>
+        <v>1.05</v>
       </c>
       <c r="C256">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D256">
         <v>2724030.937</v>
@@ -8316,10 +8316,10 @@
         </is>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C257">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="D257">
         <v>2724021.807</v>
@@ -8347,10 +8347,10 @@
         </is>
       </c>
       <c r="B258">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="C258">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="D258">
         <v>2724020.474</v>
@@ -8378,10 +8378,10 @@
         </is>
       </c>
       <c r="B259">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="C259">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D259">
         <v>2724019.255</v>
@@ -8409,10 +8409,10 @@
         </is>
       </c>
       <c r="B260">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C260">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="D260">
         <v>2724005.212</v>
@@ -8440,10 +8440,10 @@
         </is>
       </c>
       <c r="B261">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C261">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="D261">
         <v>2724008.182</v>
@@ -8471,10 +8471,10 @@
         </is>
       </c>
       <c r="B262">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="C262">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D262">
         <v>2724013.766</v>
@@ -8502,10 +8502,10 @@
         </is>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C263">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="D263">
         <v>2723959.961</v>
@@ -8533,10 +8533,10 @@
         </is>
       </c>
       <c r="B264">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="C264">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="D264">
         <v>2723967.743</v>
@@ -8564,10 +8564,10 @@
         </is>
       </c>
       <c r="B265">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="C265">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D265">
         <v>2723976.307</v>
@@ -8595,10 +8595,10 @@
         </is>
       </c>
       <c r="B266">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C266">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="D266">
         <v>2735248.432</v>
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="B267">
-        <v>115</v>
+        <v>1.15</v>
       </c>
       <c r="C267">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="D267">
         <v>2735246.433</v>
@@ -8657,10 +8657,10 @@
         </is>
       </c>
       <c r="B268">
-        <v>102</v>
+        <v>1.02</v>
       </c>
       <c r="C268">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D268">
         <v>2735243.729</v>
@@ -8688,10 +8688,10 @@
         </is>
       </c>
       <c r="B269">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="C269">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D269">
         <v>2735262.993</v>
@@ -8719,10 +8719,10 @@
         </is>
       </c>
       <c r="B270">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="C270">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D270">
         <v>2735260.913</v>
@@ -8750,10 +8750,10 @@
         </is>
       </c>
       <c r="B271">
-        <v>131</v>
+        <v>1.31</v>
       </c>
       <c r="C271">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D271">
         <v>2735258.67</v>
@@ -8781,10 +8781,10 @@
         </is>
       </c>
       <c r="B272">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C272">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D272">
         <v>2735319.698</v>
@@ -8812,10 +8812,10 @@
         </is>
       </c>
       <c r="B273">
-        <v>220</v>
+        <v>2.2</v>
       </c>
       <c r="C273">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D273">
         <v>2735317.244</v>
@@ -8843,10 +8843,10 @@
         </is>
       </c>
       <c r="B274">
-        <v>172</v>
+        <v>1.72</v>
       </c>
       <c r="C274">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="D274">
         <v>2735316.334</v>
@@ -8874,10 +8874,10 @@
         </is>
       </c>
       <c r="B275">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C275">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D275">
         <v>2735341.645</v>
@@ -8905,10 +8905,10 @@
         </is>
       </c>
       <c r="B276">
-        <v>118</v>
+        <v>1.18</v>
       </c>
       <c r="C276">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D276">
         <v>2735336.819</v>
@@ -8936,10 +8936,10 @@
         </is>
       </c>
       <c r="B277">
-        <v>108</v>
+        <v>1.08</v>
       </c>
       <c r="C277">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="D277">
         <v>2735334.931</v>
@@ -8967,10 +8967,10 @@
         </is>
       </c>
       <c r="B278">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="C278">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="D278">
         <v>2735745.309</v>
@@ -8998,10 +8998,10 @@
         </is>
       </c>
       <c r="B279">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="C279">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D279">
         <v>2735746.741</v>
@@ -9029,10 +9029,10 @@
         </is>
       </c>
       <c r="B280">
-        <v>125</v>
+        <v>1.25</v>
       </c>
       <c r="C280">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="D280">
         <v>2735749.743</v>
@@ -9060,10 +9060,10 @@
         </is>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C281">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D281">
         <v>2735754.012</v>
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="B282">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C282">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D282">
         <v>2735755.207</v>
@@ -9122,10 +9122,10 @@
         </is>
       </c>
       <c r="B283">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="C283">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="D283">
         <v>2735757.467</v>
@@ -9153,10 +9153,10 @@
         </is>
       </c>
       <c r="B284">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C284">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D284">
         <v>2735773.042</v>
@@ -9184,10 +9184,10 @@
         </is>
       </c>
       <c r="B285">
-        <v>91</v>
+        <v>0.91</v>
       </c>
       <c r="C285">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D285">
         <v>2735774.299</v>
@@ -9215,10 +9215,10 @@
         </is>
       </c>
       <c r="B286">
-        <v>133</v>
+        <v>1.33</v>
       </c>
       <c r="C286">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="D286">
         <v>2735776.987</v>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="B287">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="C287">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D287">
         <v>2735805.85</v>
@@ -9277,10 +9277,10 @@
         </is>
       </c>
       <c r="B288">
-        <v>93</v>
+        <v>0.93</v>
       </c>
       <c r="C288">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D288">
         <v>2735802.55</v>
@@ -9308,10 +9308,10 @@
         </is>
       </c>
       <c r="B289">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C289">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="D289">
         <v>2735800.157</v>
@@ -9339,10 +9339,10 @@
         </is>
       </c>
       <c r="B290">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C290">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="D290">
         <v>2728888.154</v>
@@ -9370,10 +9370,10 @@
         </is>
       </c>
       <c r="B291">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C291">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D291">
         <v>2728890.032</v>
@@ -9401,10 +9401,10 @@
         </is>
       </c>
       <c r="B292">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C292">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="D292">
         <v>2728892.753</v>
@@ -9432,10 +9432,10 @@
         </is>
       </c>
       <c r="B293">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C293">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D293">
         <v>2728883.182</v>
@@ -9463,10 +9463,10 @@
         </is>
       </c>
       <c r="B294">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="C294">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D294">
         <v>2728884.638</v>
@@ -9494,10 +9494,10 @@
         </is>
       </c>
       <c r="B295">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C295">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D295">
         <v>2728885.663</v>
@@ -9525,10 +9525,10 @@
         </is>
       </c>
       <c r="B296">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="C296">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D296">
         <v>2728759.408</v>
@@ -9556,10 +9556,10 @@
         </is>
       </c>
       <c r="B297">
-        <v>158</v>
+        <v>1.58</v>
       </c>
       <c r="C297">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D297">
         <v>2728760.321</v>
@@ -9587,10 +9587,10 @@
         </is>
       </c>
       <c r="B298">
-        <v>130</v>
+        <v>1.3</v>
       </c>
       <c r="C298">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="D298">
         <v>2728761.36</v>
@@ -9618,10 +9618,10 @@
         </is>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C299">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D299">
         <v>2728750.883</v>
@@ -9649,10 +9649,10 @@
         </is>
       </c>
       <c r="B300">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C300">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="D300">
         <v>2728752.901</v>
@@ -9680,10 +9680,10 @@
         </is>
       </c>
       <c r="B301">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C301">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="D301">
         <v>2728753.806</v>
